--- a/diagnosticoGE.xlsx
+++ b/diagnosticoGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Investigación\Plural Estudio\dashboards\diagnosticoGE\diganosticoGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF383982-11AB-4148-998B-B587943EF1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D87B85-B81F-4FC3-B9B0-750FE705A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6928,9 +6928,9 @@
   </sheetPr>
   <dimension ref="A1:BJ374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X386" sqref="X386"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
